--- a/Completed Projects/JPMC OT AREA 6th Floor/078 Bil for OT JPMC.xlsx
+++ b/Completed Projects/JPMC OT AREA 6th Floor/078 Bil for OT JPMC.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936F4FB1-689E-4395-8A9D-9D408A0519BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA1F581-7A8B-4FD8-AE0D-DF9AD77ADA36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$I$90</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$23:$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -570,6 +570,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -587,9 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="summary OLD"/>
@@ -851,9 +851,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -891,9 +891,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -926,9 +926,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,9 +978,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1139,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1177,12 +1211,12 @@
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="39">
-        <v>45635</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1196,17 +1230,17 @@
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -1220,39 +1254,39 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:11" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -1360,7 +1394,7 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="40" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -2865,16 +2899,16 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
       <c r="I76" s="18">
         <f>SUM(I25:I75)</f>
         <v>2011475.5947916664</v>
@@ -2883,29 +2917,29 @@
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
       <c r="I77" s="18"/>
       <c r="J77" s="8"/>
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
       <c r="I78" s="18">
         <f>I77+I76</f>
         <v>2011475.5947916664</v>
@@ -2958,10 +2992,10 @@
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:19" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="43"/>
+      <c r="B83" s="44"/>
       <c r="J83" s="10"/>
       <c r="K83" s="8"/>
       <c r="N83" s="2"/>
@@ -2969,11 +3003,11 @@
       <c r="S83" s="8"/>
     </row>
     <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="F84" s="40" t="s">
+      <c r="F84" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
       <c r="I84" s="30">
         <v>6376150</v>
       </c>
@@ -2981,11 +3015,11 @@
     </row>
     <row r="85" spans="1:19" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E85" s="29"/>
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
       <c r="I85" s="30">
         <f>I84*15%</f>
         <v>956422.5</v>
@@ -2996,11 +3030,11 @@
       <c r="P85" s="2"/>
     </row>
     <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="F86" s="40" t="s">
+      <c r="F86" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
       <c r="I86" s="30">
         <f>I85+I84</f>
         <v>7332572.5</v>
